--- a/w3-hw1-vy/Test cases - Registration DemoQA.xlsx
+++ b/w3-hw1-vy/Test cases - Registration DemoQA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\WC3-Homework\w3-hw1-vy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC86235-6778-49B7-8632-07740C507CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9366B775-A69B-4563-8E24-D31128988C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t>Page: Student Registration Form</t>
   </si>
@@ -141,71 +141,19 @@
     <t>The user sign up successfully</t>
   </si>
   <si>
-    <t>Verify that the user sign up successfully by filling all areas with valid information</t>
-  </si>
-  <si>
     <t>Functionality</t>
   </si>
   <si>
     <t>The mobile number does not exist in the system</t>
   </si>
   <si>
-    <t>1. Open browser and visit the website
-2. Input Name
-3. Input Email
-4. Choose Gender
-5. Input Mobile Number
-6. Input Date of Birth
-7. Input Subjects
-8. Input Hobies
-9. Choose Picture
-10. Input Current address
-11. Choose State and City
-12. Click on Submit button</t>
-  </si>
-  <si>
-    <t>First Name = "Vy"
-Last Name =  "Nguyen"
-Email = "ngphvy01@gmail.com"
-Gender = "Female"
-Mobile = "0903960514"
-Date of Birth = "11 Oct 2023"
-Subjects = "English"
-Hobies = "Reading"
-Picture = "1.jpg"
-Current address = "123 BVD"
-State = "NCR"
-City = "Delhi"</t>
-  </si>
-  <si>
     <t>TC-SIGNUP-4</t>
-  </si>
-  <si>
-    <t>Verify that the user sign up successfully with filling only valid required areas</t>
-  </si>
-  <si>
-    <t>1. Open browser and visit the website
-2. Input Name
-3. Choose Gender
-4. Input Mobile Number
-5. Input Date of Birth
-6. Click on Submit button</t>
-  </si>
-  <si>
-    <t>First Name = "Vy"
-Last Name =  "Nguyen"
-Gender = "Female"
-Mobile = "0903960514"
-Date of Birth = "11 Oct 2023"</t>
   </si>
   <si>
     <t>TC-SIGNUP-5</t>
   </si>
   <si>
     <t>The user can not sign up</t>
-  </si>
-  <si>
-    <t>Verify that the user can not sign up with all empty required information</t>
   </si>
   <si>
     <t>1. Open browser and visit the website
@@ -227,20 +175,6 @@
     <t>The mobile number is available in the system</t>
   </si>
   <si>
-    <t>First Name = "Vy"
-Last Name =  "Nguyen"
-Email = "ngphvy01@gmail.com"
-Gender = "Female"
-Mobile = "0909320976"
-Date of Birth = "11 Oct 2023"
-Subjects = "English"
-Hobies = "Reading"
-Picture = "1.jpg"
-Current address = "123 BVD"
-State = "NCR"
-City = "Delhi"</t>
-  </si>
-  <si>
     <t>TC-SIGNUP-7</t>
   </si>
   <si>
@@ -256,132 +190,7 @@
     <t>TC-SIGNUP-11</t>
   </si>
   <si>
-    <t>First Name = ""
-Last Name =  "Nguyen"
-Email = "ngphvy01@gmail.com"
-Gender = "Female"
-Mobile = "0903960514"
-Date of Birth = "11 Oct 2023"
-Subjects = "English"
-Hobies = "Reading"
-Picture = "1.jpg"
-Current address = "123 BVD"
-State = "NCR"
-City = "Delhi"</t>
-  </si>
-  <si>
-    <t>1. Open browser and visit the website
-2. Input Name
-3. Input Email
-4. Choose Gender
-7. Input Date of Birth
-8. Input Subjects
-9. Input Hobies
-10. Choose Picture
-11. Input Current address
-12. Choose State and City
-13. Click on Submit button</t>
-  </si>
-  <si>
-    <t>Verify that the user can not sign up with empty Gender</t>
-  </si>
-  <si>
-    <t>1. Open browser and visit the website
-2. Input Name
-3. Input Email
-4. Input Mobile Number
-5. Input Date of Birth
-6. Input Subjects
-7. Input Hobies
-8. Choose Picture
-9. Input Current address
-10. Choose State and City
-11. Click on Submit button</t>
-  </si>
-  <si>
-    <t>First Name = "Vy"
-Last Name =  "Nguyen"
-Email = "ngphvy01@gmail.com"
-Gender = ""
-Mobile = "0903960514"
-Date of Birth = "11 Oct 2023"
-Subjects = "English"
-Hobies = "Reading"
-Picture = "1.jpg"
-Current address = "123 BVD"
-State = "NCR"
-City = "Delhi"</t>
-  </si>
-  <si>
     <t>The confirmation form is displayed with filled information.</t>
-  </si>
-  <si>
-    <t>Verify that the user can not sign up with invalid information:
-- Email does not include ".com"
-- Mobile number has alphabet characters
-- Picture has invalid file format</t>
-  </si>
-  <si>
-    <t>Verify that the user can not sign up with and invalid email:
-- Email include more than 1 "."
-- Mobile number has alphabet characters
-- Picture has invalid file format</t>
-  </si>
-  <si>
-    <t>First Name = "Vy"
-Last Name =  "Nguyen"
-Email = "ngphvy01@gmail....com"
-Gender = "Female"
-Mobile = "090932abcd"
-Date of Birth = "11 Oct 2023"
-Subjects = "English"
-Hobies = "Reading"
-Picture = "19127088.pdf"
-Current address = "123 BVD"
-State = "NCR"
-City = "Delhi"</t>
-  </si>
-  <si>
-    <t>First Name = "Vy"
-Last Name =  "Nguyen"
-Email = "ngphvy01@gmail"
-Gender = "Female"
-Mobile = "090abcdefg"
-Date of Birth = "11 Oct 2023"
-Subjects = "English"
-Hobies = "Reading"
-Picture = "19127088.pdf"
-Current address = "123 BVD"
-State = "NCR"
-City = "Delhi"</t>
-  </si>
-  <si>
-    <t>Verify that the user can not sign up with empty Mobile Number and empty Last name</t>
-  </si>
-  <si>
-    <t>Verify that the user can not sign up with empty First Name</t>
-  </si>
-  <si>
-    <t>First Name = "Vy"
-Last Name =  ""
-Email = "ngphvy01@gmail.com"
-Gender = "Female"
-Mobile = ""
-Date of Birth = "11 Oct 2023"
-Subjects = "English"
-Hobies = "Reading"
-Picture = "1.jpg"
-Current address = "123 BVD"
-State = "NCR"
-City = "Delhi"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Picure area still allow choosing pdf format</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Email accepts the wrong email format
- - Picture area still allow choosing pdf format
-</t>
   </si>
   <si>
     <t xml:space="preserve"> - Continuously deleting by Backspace in Subjects area making webpage reload
@@ -395,41 +204,273 @@
 2. Show notification about existing mobile number</t>
   </si>
   <si>
-    <t>1. Email text box has a red border
-2. Mobile text box has red border
-3. Picture area does not allow choosing wrong format picture file</t>
+    <t>Verify that the user can: 
+- Change uploaded picture 
+- Sign up successfully by filling all areas with valid information</t>
   </si>
   <si>
-    <t>1. FirstName has a red border</t>
+    <t>Verify that the user sign up successfully by filling only required areas with valid information</t>
   </si>
   <si>
-    <t>1. Mobile Number and Last name have red border</t>
+    <t>Verify that the user can not sign up with all empty information</t>
   </si>
   <si>
-    <t>1. Gender has red notification</t>
+    <t>Verify that the user can not sign up with:
+- Email includes multiple '@'
+- Mobile number has alphabet characters
+- Picture has invalid file format</t>
   </si>
   <si>
     <t>TC-SIGNUP-12</t>
   </si>
   <si>
-    <t>Verify that the user can not sign up with birthday after today</t>
+    <t>1. Open browser and visit the website
+2. Input FirstName
+3. Input LastName
+4. Input Email
+5. Choose Gender
+6. Input Mobile Number
+7. Input Date of Birth
+8. Input Subjects
+9. Input Hobbies
+10. Choose Picture
+11. Input Current address
+12. Choose State and City
+13. Choose another picture
+14. Click on Submit button</t>
   </si>
   <si>
-    <t>1. Date of Birth has red notification</t>
+    <t>1. Open browser and visit the website
+2. Input FirstName
+3. Input LastName
+4. Choose Gender
+5. Input Mobile Number
+6. Input Date of Birth
+7. Click on Submit button</t>
   </si>
   <si>
-    <t>First Name = "Vy"
-Last Name =  "Nguyen"
+    <t>1. Open browser and visit the website
+2. Input FirstName
+3. Input LastName
+4. Input Email
+5. Choose Gender
+6. Input Mobile Number
+7. Input Date of Birth
+8. Input Subjects
+9. Input Hobbies
+10. Choose Picture
+11. Input Current address
+12. Choose State and City
+13. Click on Submit button</t>
+  </si>
+  <si>
+    <t>1. Email text box has red border
+2. Mobile text box has red border
+3. Picture area does not allow choosing wrong format picture file</t>
+  </si>
+  <si>
+    <t>FirstName = "Vy"
+LastName =  "Nguyen"
+Gender = "Female"
+Mobile = "0903960514"
+Date of Birth = "11 Oct 2023"</t>
+  </si>
+  <si>
+    <t>1. Open browser and visit the website
+2. Input FirstName
+3. Input LastName
+4. Input Email
+5. Choose Gender
+6. Input Mobile Number
+7. Input Date of Birth
+8. Click on Submit button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the user can not sign up with invalid information:
+- FirstName has only space characters
+- Email does not include ".com"
+- Mobile has spaces, special character and non-number character: '1=1' 
+</t>
+  </si>
+  <si>
+    <t>FirstName = "  "
+LastName =  "Nguyen"
+Email = "ngphvy01@gmail"
+Gender = "Female"
+Mobile = "09039  1=1"
+Date of Birth = "11 Oct 2023"</t>
+  </si>
+  <si>
+    <t>1. FirstName text box has a red border
+2. Email text box has red border
+3. Mobile text box has red border</t>
+  </si>
+  <si>
+    <t>1. Open browser and visit the website
+2. Input LastName
+3. Input Email
+4. Input Mobile Number
+5. Input Date of Birth
+6. Click on Submit button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the user can not sign up with:
+- Empty FirstName
+- LastName with non-alphabet character: "@" and number
+- Empty Gender
+- Email has spaces
+- Mobile has prefix character: "+"
+</t>
+  </si>
+  <si>
+    <t>1. FirstName text box has a red border
+2. LastName text box has a red border
+3. Gender has red border
+4. Email text box has red border
+5. Mobile text box has red border</t>
+  </si>
+  <si>
+    <t>1. The user can change picture successfully
+2. The confirmation form is displayed with filled information</t>
+  </si>
+  <si>
+    <t>FirstName = "Vy"
+LastName =  "Nguyen"
 Email = "ngphvy01@gmail.com"
 Gender = "Female"
-Mobile = "0903960514"
-Date of Birth = "15 Oct 2023"
+Mobile = "0909320976"
+Date of Birth = "11 Oct 2023"
 Subjects = "English"
-Hobies = "Reading"
+Hobbies = "Reading"
 Picture = "1.jpg"
 Current address = "123 BVD"
 State = "NCR"
 City = "Delhi"</t>
+  </si>
+  <si>
+    <t>FirstName = "Vy"
+LastName =  "Nguyen"
+Email = "ngphvy01@gmail.com"
+Gender = "Female"
+Mobile = "0903960514"
+Date of Birth = "11 Oct 2023"
+Subjects = "English", "Chemistry"
+Hobbies = "Reading", "Sports"
+Picture = "2.jpg"
+Current address = "123 BVD"
+State = "NCR"
+City = "Delhi"
+Picture = "1.jpg"</t>
+  </si>
+  <si>
+    <t>1. Open browser and visit the website
+2. Input FirstName
+3. Input LastName
+4. Input Email
+5. Choose Gender
+6. Input Mobile Number
+7. Input Date of Birth
+8. Choose Picture
+9. Click on Submit button</t>
+  </si>
+  <si>
+    <t>Last Name =  "Nguyen@8"
+Email = "ngphvy  01@gmail.com"
+Mobile = "+090396051"
+Date of Birth = "11 Oct 2023"</t>
+  </si>
+  <si>
+    <t>FirstName = "Vy"
+LastName =  "Nguyen"
+Email = "ngphvy01@gmail@gmail.com"
+Gender = "Female"
+Mobile = "090abcdefg"
+Date of Birth = "11 Oct 2023"
+Picture = "I.pdf"</t>
+  </si>
+  <si>
+    <t>Verify that the user can not sign up with:
+- Empty Mobile Number
+- Empty LastName
+- FirstName with special characters: "^", "@"; and number
+- Email has leading and trailing spaces
+- Birthday after today</t>
+  </si>
+  <si>
+    <t>1. Open browser and visit the website
+2. Input FirstName
+3. Choose Gender
+4. Input Email
+5. Input Date of Birth
+6. Click on Submit button</t>
+  </si>
+  <si>
+    <t>Verify that the registration page does not accept leading or trailing spaces in FirstName and LastName</t>
+  </si>
+  <si>
+    <t>FirstName = "Vy           "
+LastName =  "          Nguyen  "
+Email = "ngphvy01@gmail.com"
+Gender = "Female"
+Mobile = "0903960514"
+Date of Birth = "11 Oct 2023"
+Subjects = "English"
+Hobbies = "Reading"
+Picture = "1.jpg"
+Current address = "123 BVD      "
+State = "NCR"
+City = "Delhi"</t>
+  </si>
+  <si>
+    <t>1. The confirmation form automatically deletes spaces in FirstName and LastName</t>
+  </si>
+  <si>
+    <t>Verify that the user can not sign up with invalid information:
+- Email includes more than 1 "."
+- Mobile number has spaces</t>
+  </si>
+  <si>
+    <t>1. Email text box has red border
+2. Mobile text box has red border</t>
+  </si>
+  <si>
+    <t>FirstName = "Vy"
+LastName =  "Nguyen"
+Email = "ngphvy01@gmail….com"
+Gender = "Female"
+Mobile = "09039  514"
+Date of Birth = "11 Oct 2023"</t>
+  </si>
+  <si>
+    <t>First Name = "Vy"
+Gender = "Female"
+Email = "                 ngphvy01@gmail.com   "
+Date of Birth = "20 Oct 2024"</t>
+  </si>
+  <si>
+    <t>1. LastName text box has a red border
+2. Mobile text box has red border
+3. Email text box has red border
+4. Date of Birth has red notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Picture area still allow choosing pdf format
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Name area should display 'Vy Nguyen', not 'Vy Nguyen  '</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - FirstName still accept invalid case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Email still accept invalid case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - LastName accepts invalid case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - DOB accepts invalid case</t>
   </si>
 </sst>
 </file>
@@ -540,7 +581,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -563,11 +604,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -643,6 +721,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -650,21 +756,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,40 +892,6 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3200400" cy="2914650"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="image8.png" title="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
@@ -849,50 +908,12 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>118110</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>93345</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3771900" cy="2609850"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="image9.png" title="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9559290" y="26976705"/>
-          <a:ext cx="3771900" cy="2609850"/>
-        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -921,7 +942,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -955,7 +976,7 @@
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -969,63 +990,157 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>104657</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>75847</xdr:rowOff>
+      <xdr:colOff>50131</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2616870</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3771900" cy="2609850"/>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2807368</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5134248</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="image6.png" title="Image">
+        <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380ECDB4-DEF7-1608-F1C6-D6BE6EA7CDE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9540287" y="33105254"/>
-          <a:ext cx="3771900" cy="2609850"/>
+          <a:off x="11770894" y="11540291"/>
+          <a:ext cx="2757237" cy="2517378"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>78159</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>256498</xdr:rowOff>
+      <xdr:colOff>57880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>3632488</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2942617</xdr:rowOff>
+      <xdr:colOff>3890212</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2574499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
+        <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0744F72A-772E-0CDF-8797-565DCFD1448C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB04C5E-E1FC-9115-E697-7926672D7D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11778643" y="9003631"/>
+          <a:ext cx="3832332" cy="2494289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42931</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>311241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3970985</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2404563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FE08E3-AD82-07E6-067C-D6466F278D72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12471044" y="22945861"/>
+          <a:ext cx="3928054" cy="2093322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14879</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>217332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3982376</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2653585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF729061-C8C5-9EE2-78E2-D75A2CBB5016}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1041,8 +1156,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9513989" y="21462796"/>
-          <a:ext cx="3554329" cy="2686119"/>
+          <a:off x="12440674" y="25735673"/>
+          <a:ext cx="3967497" cy="2436253"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1054,22 +1169,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>102207</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>405320</xdr:rowOff>
+      <xdr:colOff>43295</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>216477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>3834318</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>3300658</xdr:rowOff>
+      <xdr:colOff>4036283</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2727614</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
+        <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121C91A8-9AF1-013C-35D6-76EB39F0908E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E1D577-0423-92C3-83FE-F0BFCEB54E97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1085,8 +1200,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9538037" y="24667724"/>
-          <a:ext cx="3732111" cy="2895338"/>
+          <a:off x="12469090" y="28427795"/>
+          <a:ext cx="3992988" cy="2511137"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1098,22 +1213,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105085</xdr:colOff>
+      <xdr:colOff>43295</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>7806</xdr:rowOff>
+      <xdr:rowOff>268431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>3687704</xdr:colOff>
+      <xdr:colOff>3940412</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>2766679</xdr:rowOff>
+      <xdr:rowOff>2701636</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
+        <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E56AF20-8B9D-9130-2AF6-3C50309479FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF08EDE-2A61-2BDE-FC21-495177729DE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1129,8 +1244,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9540715" y="30243213"/>
-          <a:ext cx="3582619" cy="2758873"/>
+          <a:off x="12469090" y="31319931"/>
+          <a:ext cx="3897117" cy="2433205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1142,22 +1257,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>131704</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>56445</xdr:rowOff>
+      <xdr:colOff>60614</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>303068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1955321</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1719541</xdr:rowOff>
+      <xdr:colOff>3939887</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2763681</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
+        <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E06088-AD7F-8EB7-1A87-FDC91AF08F12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239B0824-AF4C-3637-1D3E-75EBBE0DEEF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1173,8 +1288,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12453100" y="35482256"/>
-          <a:ext cx="1823617" cy="1663096"/>
+          <a:off x="12486409" y="34212068"/>
+          <a:ext cx="3879273" cy="2460613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1186,22 +1301,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>112357</xdr:colOff>
+      <xdr:colOff>51954</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>1764155</xdr:rowOff>
+      <xdr:rowOff>251114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>3795624</xdr:colOff>
+      <xdr:colOff>3909046</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>4106037</xdr:rowOff>
+      <xdr:rowOff>2736273</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="25" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27AE940-6B01-7A13-5551-31DC5689D679}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9602F2BE-AE81-807B-D9C3-245B0D985F1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1217,8 +1332,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12433753" y="37189966"/>
-          <a:ext cx="3683267" cy="2337961"/>
+          <a:off x="12477749" y="36957000"/>
+          <a:ext cx="3857092" cy="2485159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1431,32 +1546,32 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
     <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="28.109375" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" customWidth="1"/>
+    <col min="8" max="8" width="33.5546875" customWidth="1"/>
     <col min="9" max="9" width="59" customWidth="1"/>
     <col min="11" max="11" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
-        <v>69</v>
+      <c r="A1" s="37" t="s">
+        <v>47</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
@@ -1482,11 +1597,11 @@
       <c r="Z1" s="18"/>
     </row>
     <row r="2" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -1512,11 +1627,11 @@
       <c r="Z2" s="18"/>
     </row>
     <row r="3" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
@@ -1542,11 +1657,11 @@
       <c r="Z3" s="18"/>
     </row>
     <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
@@ -1653,16 +1768,16 @@
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1697,12 +1812,12 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
@@ -1711,7 +1826,7 @@
         <v>25</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>26</v>
@@ -1733,30 +1848,30 @@
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
     </row>
-    <row r="9" spans="1:26" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="E9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" s="10" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="5" t="s">
@@ -1764,7 +1879,6 @@
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
@@ -1781,24 +1895,24 @@
     </row>
     <row r="10" spans="1:26" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="F10" s="10" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="5" t="s">
@@ -1823,31 +1937,31 @@
     </row>
     <row r="11" spans="1:26" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>39</v>
+      <c r="B11" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
-      <c r="D11" s="35" t="s">
-        <v>30</v>
+      <c r="D11" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
@@ -1867,24 +1981,24 @@
     </row>
     <row r="12" spans="1:26" ht="244.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="13" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="7" t="s">
@@ -1907,27 +2021,27 @@
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
     </row>
-    <row r="13" spans="1:26" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="226.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="13" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="12"/>
       <c r="F13" s="14" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
-      <c r="I13" s="15" t="s">
-        <v>66</v>
+      <c r="I13" s="40" t="s">
+        <v>83</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>26</v>
@@ -1949,27 +2063,27 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26" ht="265.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="211.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="12"/>
       <c r="F14" s="14" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>26</v>
@@ -1991,28 +2105,30 @@
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
     </row>
-    <row r="15" spans="1:26" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="223.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="12"/>
       <c r="F15" s="14" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="5" t="s">
-        <v>21</v>
+      <c r="I15" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="18"/>
@@ -2031,28 +2147,30 @@
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
     </row>
-    <row r="16" spans="1:26" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="13" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="12"/>
       <c r="F16" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="5" t="s">
-        <v>21</v>
+      <c r="I16" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="18"/>
@@ -2073,26 +2191,28 @@
     </row>
     <row r="17" spans="1:26" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="13" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="12"/>
       <c r="F17" s="14" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="5" t="s">
-        <v>21</v>
+      <c r="I17" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="18"/>
@@ -2111,26 +2231,28 @@
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
     </row>
-    <row r="18" spans="1:26" ht="330" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="12"/>
       <c r="F18" s="14" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
-      <c r="I18" s="15"/>
+      <c r="I18" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
       </c>
@@ -29591,47 +29713,19 @@
       <c r="Y998" s="18"/>
       <c r="Z998" s="18"/>
     </row>
-    <row r="999" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A999" s="17"/>
-      <c r="B999" s="18"/>
-      <c r="C999" s="19"/>
-      <c r="D999" s="18"/>
-      <c r="E999" s="18"/>
-      <c r="F999" s="18"/>
-      <c r="G999" s="18"/>
-      <c r="H999" s="18"/>
-      <c r="I999" s="20"/>
-      <c r="J999" s="21"/>
-      <c r="K999" s="18"/>
-      <c r="L999" s="18"/>
-      <c r="M999" s="18"/>
-      <c r="N999" s="18"/>
-      <c r="O999" s="18"/>
-      <c r="P999" s="18"/>
-      <c r="Q999" s="18"/>
-      <c r="R999" s="18"/>
-      <c r="S999" s="18"/>
-      <c r="T999" s="18"/>
-      <c r="U999" s="18"/>
-      <c r="V999" s="18"/>
-      <c r="W999" s="18"/>
-      <c r="X999" s="18"/>
-      <c r="Y999" s="18"/>
-      <c r="Z999" s="18"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="D11:D18"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
